--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -224,6 +224,18 @@
     <t>Pt—Legeme; højde = ? m</t>
   </si>
   <si>
+    <t>NPU08676</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; temp. = ? °C</t>
+  </si>
+  <si>
+    <t>NPU19748</t>
+  </si>
+  <si>
+    <t>C-reaktivt protein [CRP];P</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -279,6 +291,24 @@
   </si>
   <si>
     <t>CAT score;Pt</t>
+  </si>
+  <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.4</t>
@@ -792,7 +822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -917,6 +947,40 @@
         <v>48</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -924,7 +988,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +1013,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -966,10 +1030,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -983,10 +1047,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1000,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -1017,10 +1081,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -1034,10 +1098,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1051,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>
@@ -1068,10 +1132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>36</v>
@@ -1085,10 +1149,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>36</v>
@@ -1102,10 +1166,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>36</v>
@@ -1114,6 +1178,57 @@
         <v>47</v>
       </c>
       <c r="E11" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>48</v>
       </c>
     </row>
@@ -1149,7 +1264,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1166,10 +1281,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1213,7 +1328,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1230,10 +1345,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1250,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1267,7 +1382,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -1284,7 +1399,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -1328,7 +1443,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1345,10 +1460,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1362,10 +1477,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -13,12 +13,13 @@
     <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
     <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
     <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
+    <sheet name="Mapping Table 6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -341,6 +342,51 @@
     <t>Instruction</t>
   </si>
   <si>
+    <t>446080005</t>
+  </si>
+  <si>
+    <t>Photography of wound</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>72287-6</t>
+  </si>
+  <si>
+    <t>Wound size panel</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
+  </si>
+  <si>
     <t>ALCA00</t>
   </si>
   <si>
@@ -351,6 +397,12 @@
   </si>
   <si>
     <t>virtuel kontakt</t>
+  </si>
+  <si>
+    <t>ZZ7011</t>
+  </si>
+  <si>
+    <t>Klinisk foto</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,6 +1466,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1421,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1446,7 +1515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1463,10 +1532,159 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>123</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1480,10 +1698,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1493,6 +1711,23 @@
       </c>
       <c r="E4" t="s" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.1</t>
+  </si>
+  <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
   </si>
   <si>
     <t>NPU03011</t>
@@ -877,7 +889,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,6 +1045,40 @@
         <v>48</v>
       </c>
       <c r="E9" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>49</v>
       </c>
     </row>
@@ -1068,7 +1114,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1085,10 +1131,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1102,10 +1148,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1119,10 +1165,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1136,10 +1182,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1153,10 +1199,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1170,10 +1216,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1187,10 +1233,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1204,10 +1250,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1221,10 +1267,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1238,10 +1284,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -1255,10 +1301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>37</v>
@@ -1272,10 +1318,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1319,7 +1365,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1336,10 +1382,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1383,7 +1429,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1400,10 +1446,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1420,7 +1466,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1437,7 +1483,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1454,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1468,10 +1514,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1515,7 +1561,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1532,10 +1578,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1549,10 +1595,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1566,10 +1612,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1583,10 +1629,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1600,10 +1646,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1617,10 +1663,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1664,7 +1710,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1681,10 +1727,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1698,10 +1744,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1715,10 +1761,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -108,7 +108,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0532</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
   </si>
   <si>
     <t>Display</t>
@@ -123,7 +123,7 @@
     <t/>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0532</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
   </si>
   <si>
     <t>TBD</t>
@@ -213,19 +213,19 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t>NPU27281</t>
@@ -246,12 +246,6 @@
     <t>Pt—Legeme; temp. = ? °C</t>
   </si>
   <si>
-    <t>NPU19748</t>
-  </si>
-  <si>
-    <t>C-reaktivt protein [CRP];P</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -271,18 +265,6 @@
   </si>
   <si>
     <t>FEV1/FVC;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
   </si>
   <si>
     <t>MCS88021</t>
@@ -889,7 +871,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,23 +1047,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1089,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1079,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1131,10 +1096,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1148,10 +1113,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1165,10 +1130,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1182,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1199,10 +1164,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1216,10 +1181,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1233,10 +1198,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1250,10 +1215,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1267,10 +1232,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1284,10 +1249,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -1296,40 +1261,6 @@
         <v>48</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s" s="2">
         <v>49</v>
       </c>
     </row>
@@ -1365,7 +1296,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1382,10 +1313,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1429,7 +1360,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1446,10 +1377,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1466,7 +1397,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1483,7 +1414,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1500,7 +1431,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1514,10 +1445,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1561,7 +1492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1578,10 +1509,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1595,10 +1526,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1612,10 +1543,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1629,10 +1560,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1646,10 +1577,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1663,10 +1594,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1710,7 +1641,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1727,10 +1658,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1744,10 +1675,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1761,10 +1692,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-do-reminder.xlsx
+++ b/fhir/activitydefinition-code-to-do-reminder.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
